--- a/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6FC88F-89AC-4D8A-9951-1AD290E4ED65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EAFDB1-3DFA-4A27-AE07-967F07FC56B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="1095" windowWidth="17400" windowHeight="13995" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10785" yWindow="1095" windowWidth="17400" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Vocab" sheetId="6" r:id="rId1"/>
     <sheet name="1_Vocab_Ex" sheetId="7" r:id="rId2"/>
-    <sheet name="2_" sheetId="8" r:id="rId3"/>
+    <sheet name="2_Vocab" sheetId="8" r:id="rId3"/>
     <sheet name="3_" sheetId="9" r:id="rId4"/>
     <sheet name="4_MultC" sheetId="1" r:id="rId5"/>
     <sheet name="5_Quant" sheetId="3" r:id="rId6"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -223,6 +223,27 @@
   </si>
   <si>
     <t>Speed of the aircraft</t>
+  </si>
+  <si>
+    <t>The rate of arrival of new cars</t>
+  </si>
+  <si>
+    <t>The length of red lights</t>
+  </si>
+  <si>
+    <t>The use of turn arrows</t>
+  </si>
+  <si>
+    <t>The average wait time for each car</t>
+  </si>
+  <si>
+    <t>The number of cars in a given lane at 5:14 pm</t>
+  </si>
+  <si>
+    <t>The maximum wait time for a driver</t>
+  </si>
+  <si>
+    <t>Imagine you are modeling traffic flow at a busy corner.    You want as little back up of traffic as possible during evening rush hour.  There is no room to increase the number of lanes, but you can alter the pattern of the lights.  What type of variable is each of these?</t>
   </si>
 </sst>
 </file>
@@ -665,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,21 +771,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EAFDB1-3DFA-4A27-AE07-967F07FC56B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081B9468-C57F-4EE9-8C0A-3C757A72113F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10785" yWindow="1095" windowWidth="17400" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>Imagine you are modeling traffic flow at a busy corner.    You want as little back up of traffic as possible during evening rush hour.  There is no room to increase the number of lanes, but you can alter the pattern of the lights.  What type of variable is each of these?</t>
+  </si>
+  <si>
+    <t>This would be beyond the control of the model-maker, so would be a defined parameter.</t>
+  </si>
+  <si>
+    <t>This describes the state of the system at a given moment.</t>
   </si>
 </sst>
 </file>
@@ -771,9 +777,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -784,12 +792,12 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
@@ -799,8 +807,11 @@
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -811,7 +822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -822,7 +833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -833,15 +844,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>65</v>
       </c>

--- a/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081B9468-C57F-4EE9-8C0A-3C757A72113F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209ED635-DFFA-44B6-A028-42F94C5E8CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10785" yWindow="1095" windowWidth="17400" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="6060" yWindow="705" windowWidth="22005" windowHeight="13890" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Vocab" sheetId="6" r:id="rId1"/>
@@ -34,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -207,9 +205,6 @@
     <t>Length of the wing</t>
   </si>
   <si>
-    <t>Angle of attack of the wing</t>
-  </si>
-  <si>
     <t>Average vertical lift</t>
   </si>
   <si>
@@ -222,9 +217,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>Speed of the aircraft</t>
-  </si>
-  <si>
     <t>The rate of arrival of new cars</t>
   </si>
   <si>
@@ -249,7 +241,25 @@
     <t>This would be beyond the control of the model-maker, so would be a defined parameter.</t>
   </si>
   <si>
-    <t>This describes the state of the system at a given moment.</t>
+    <t>This describes the state of the system at a given moment, so is a state variable.</t>
+  </si>
+  <si>
+    <t>This is set before the simulation is run, and remains constant.</t>
+  </si>
+  <si>
+    <t>Because the simulation runs from take-off to cruising speed, this would change through time, and would describe the state of the plane at a given moment.</t>
+  </si>
+  <si>
+    <t>This describes the shape of the wing, which is the variable that is being tested.</t>
+  </si>
+  <si>
+    <t>Speed of the aircraft just as it begins to lift off the ground</t>
+  </si>
+  <si>
+    <t>Angle of attack of the wing 10 seconds after lift-off</t>
+  </si>
+  <si>
+    <t>This describes the "success" of a particular model (presumably we'd want to minimize this!)</t>
   </si>
 </sst>
 </file>
@@ -690,10 +700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,12 +715,12 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
@@ -720,10 +730,13 @@
       <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -731,21 +744,24 @@
       <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -754,20 +770,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +802,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,12 +816,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
@@ -808,12 +830,12 @@
         <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>40</v>
@@ -824,7 +846,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>40</v>
@@ -835,32 +857,35 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -872,9 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209ED635-DFFA-44B6-A028-42F94C5E8CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1860742C-ABC7-44C9-955B-51D216F9526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="705" windowWidth="22005" windowHeight="13890" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="6060" yWindow="705" windowWidth="22005" windowHeight="13890" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Vocab" sheetId="6" r:id="rId1"/>
     <sheet name="1_Vocab_Ex" sheetId="7" r:id="rId2"/>
     <sheet name="2_Vocab" sheetId="8" r:id="rId3"/>
     <sheet name="3_" sheetId="9" r:id="rId4"/>
-    <sheet name="4_MultC" sheetId="1" r:id="rId5"/>
-    <sheet name="5_Quant" sheetId="3" r:id="rId6"/>
-    <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
-    <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
+    <sheet name="4_" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
+    <sheet name="4_MultC" sheetId="1" r:id="rId7"/>
+    <sheet name="5_Quant" sheetId="3" r:id="rId8"/>
+    <sheet name="6_MultAns" sheetId="4" r:id="rId9"/>
+    <sheet name="7_Matching" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -260,6 +262,63 @@
   </si>
   <si>
     <t>This describes the "success" of a particular model (presumably we'd want to minimize this!)</t>
+  </si>
+  <si>
+    <t>Match the code grammar for a function with what it does that grammar indicates</t>
+  </si>
+  <si>
+    <t>Parentheses</t>
+  </si>
+  <si>
+    <t>"return"</t>
+  </si>
+  <si>
+    <t>"def"</t>
+  </si>
+  <si>
+    <t>"=" (equal sign)</t>
+  </si>
+  <si>
+    <t>Indicates that the output of the function to the right is being "assigned" to the variable on the left</t>
+  </si>
+  <si>
+    <t>Indicates the "input" of the function</t>
+  </si>
+  <si>
+    <t>Indicates the "output" of the function (and the end of the function definition)</t>
+  </si>
+  <si>
+    <t>Indicates the lines that define the what the function does to the input</t>
+  </si>
+  <si>
+    <t>Indicates the beginning of a function definition</t>
+  </si>
+  <si>
+    <t>Indented lines in function definition</t>
+  </si>
+  <si>
+    <t>y = np.sin(5)</t>
+  </si>
+  <si>
+    <t>Which of the following lines show a function being "called"?  Answer all that are true.</t>
+  </si>
+  <si>
+    <t>def this_is_a_function(time):</t>
+  </si>
+  <si>
+    <t>t = t_1 + t_2</t>
+  </si>
+  <si>
+    <t>gorilla = elephant(tiger)</t>
+  </si>
+  <si>
+    <t>money = this_is_a_function(time)</t>
+  </si>
+  <si>
+    <t>The grammar is all that matters.  Even though this doesn't seem to make sense, the parentheses indicate that a function is being called and the output is being assigned to the variable "gorilla"</t>
+  </si>
+  <si>
+    <t>There is no "def" here, so the parentheses indicate that a function is being called.</t>
   </si>
 </sst>
 </file>
@@ -698,12 +757,101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,9 +1043,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -907,12 +1057,165 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C58989-F92A-43CC-81ED-0D6C5070F5A8}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757B2442-BAFF-46F2-AD90-8B4B39C67929}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -988,7 +1291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1056,7 +1359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1141,93 +1444,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1860742C-ABC7-44C9-955B-51D216F9526D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CAC02-C6B7-41E2-827E-9CE920FCA4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6060" yWindow="705" windowWidth="22005" windowHeight="13890" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -264,9 +264,6 @@
     <t>This describes the "success" of a particular model (presumably we'd want to minimize this!)</t>
   </si>
   <si>
-    <t>Match the code grammar for a function with what it does that grammar indicates</t>
-  </si>
-  <si>
     <t>Parentheses</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>There is no "def" here, so the parentheses indicate that a function is being called.</t>
+  </si>
+  <si>
+    <t>Here are 5 terms or conditions that appear when a function is defined or called.   Match the function of each term with the term itself.</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1058,53 +1058,53 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1112,15 +1112,10 @@
         <v>82</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1128,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,13 +1139,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -1158,7 +1153,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1166,7 +1161,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -1174,24 +1169,24 @@
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">

--- a/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
+++ b/Images_and_Data/Embedded_Qs/1_2_bikeshare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089CAC02-C6B7-41E2-827E-9CE920FCA4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0518650-39F6-4F42-880C-B2501249B9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="705" windowWidth="22005" windowHeight="13890" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="6060" yWindow="705" windowWidth="22005" windowHeight="13890" activeTab="6" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_Vocab" sheetId="6" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="2_Vocab" sheetId="8" r:id="rId3"/>
     <sheet name="3_" sheetId="9" r:id="rId4"/>
     <sheet name="4_" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
-    <sheet name="4_MultC" sheetId="1" r:id="rId7"/>
-    <sheet name="5_Quant" sheetId="3" r:id="rId8"/>
-    <sheet name="6_MultAns" sheetId="4" r:id="rId9"/>
-    <sheet name="7_Matching" sheetId="5" r:id="rId10"/>
+    <sheet name="5_" sheetId="10" r:id="rId6"/>
+    <sheet name="6_" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId8"/>
+    <sheet name="4_MultC" sheetId="1" r:id="rId9"/>
+    <sheet name="5_Quant" sheetId="3" r:id="rId10"/>
+    <sheet name="6_MultAns" sheetId="4" r:id="rId11"/>
+    <sheet name="7_Matching" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
   <si>
     <t>What is the color of the car?</t>
   </si>
@@ -319,6 +321,42 @@
   </si>
   <si>
     <t>Here are 5 terms or conditions that appear when a function is defined or called.   Match the function of each term with the term itself.</t>
+  </si>
+  <si>
+    <t>Look at the output of the previous cell.  Why does the number of bikes at Moline never go up?</t>
+  </si>
+  <si>
+    <t>Because the "bike_to_moline" function never gets called</t>
+  </si>
+  <si>
+    <t>Because the change in the number of bikes is not properly recorded in "bikeshare"</t>
+  </si>
+  <si>
+    <t>Because "state.augie" is always above 0, so the "if" clause in "bike_to_moline" never runs even when the function is called</t>
+  </si>
+  <si>
+    <t>It is being called: we can tell this because the lines on either side of it (the print statements) are being run</t>
+  </si>
+  <si>
+    <t>This is a reasonable hypothesis, but is not the case here.</t>
+  </si>
+  <si>
+    <t>Look at the output of the previous cell.  20 time steps are run.  Why are the print statements always run fewer than 20 times?</t>
+  </si>
+  <si>
+    <t>Because the reversed "greater than" sign means the  print statements are not always run</t>
+  </si>
+  <si>
+    <t>Because the function "bike_to_moline" is only run 50% of the time (and this is a problem)</t>
+  </si>
+  <si>
+    <t>Because the function "bike_to_moline" is only run 50% of the time (and this is working properly)</t>
+  </si>
+  <si>
+    <t>This problem is inside "bike_to_moline", so it doesn't affect the print statements, which are outside that function</t>
+  </si>
+  <si>
+    <t>Remember that we set the parameters so that a bike only goes to Moline on 50% of the time steps!</t>
   </si>
 </sst>
 </file>
@@ -758,6 +796,161 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>120.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56142F3E-EDF4-4F94-8302-41BC26975020}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1127,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C58989-F92A-43CC-81ED-0D6C5070F5A8}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,6 +1393,133 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757B2442-BAFF-46F2-AD90-8B4B39C67929}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE841DE-4609-4417-AC2A-D0B3B2C40033}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDC2374-2AD9-4706-ABC8-F6BB2E3A7998}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1210,12 +1530,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,159 +1604,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>120.3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>